--- a/Bench-in-loop/Graph_Traversal/Graph_Traversal.xlsx
+++ b/Bench-in-loop/Graph_Traversal/Graph_Traversal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ikerlan-my.sharepoint.com/personal/mrodriguez_ikerlan_es/Documents/Documentos/GitHub/MARS-data/Bench-in-loop/Graph_Traversal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{5403B381-1C17-4381-B9E6-DD0D7DEE3787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A215B65B-B462-48F7-BDA2-4B3AFDEF193B}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{5403B381-1C17-4381-B9E6-DD0D7DEE3787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55424CB0-BCCC-4951-8D83-5390ECB4963F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="748" xr2:uid="{3BB41F9D-0BB3-4FC4-952D-A48197C80458}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="748" activeTab="1" xr2:uid="{3BB41F9D-0BB3-4FC4-952D-A48197C80458}"/>
   </bookViews>
   <sheets>
     <sheet name="BFS_1MW" sheetId="12" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="30">
   <si>
     <t>cudaMalloc</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>traditional allocation</t>
+  </si>
+  <si>
+    <t>Normalized mean</t>
   </si>
 </sst>
 </file>
@@ -371,12 +374,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -395,10 +392,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,9 +436,10 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
+      <c:rotX val="40"/>
+      <c:rotY val="30"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="0"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -471,20 +475,30 @@
       </c:spPr>
     </c:backWall>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7206391626089008E-2"/>
+          <c:y val="2.2770647303387497E-2"/>
+          <c:w val="0.74041050325388946"/>
+          <c:h val="0.81955410382548477"/>
+        </c:manualLayout>
+      </c:layout>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>KERNEL LAUNCH API</c:v>
+            <c:v>COPY API</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -509,12 +523,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -576,43 +587,43 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(BFS_1MW!$C$7,BFS_1MW!$C$17,BFS_1MW!$C$27,BFS_1MW!$C$37,BFS_1MW!$C$47)</c:f>
+              <c:f>(BFS_1MW!$E$9,BFS_1MW!$E$19,BFS_1MW!$E$29,BFS_1MW!$E$39,BFS_1MW!$E$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.4345691999999999E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.33821642E-2</c:v>
+                  <c:v>0.95036395604814561</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2235135999999998E-2</c:v>
+                  <c:v>1.0059934903575178</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4999382765531E-2</c:v>
+                  <c:v>1.0270146525305615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.125509448</c:v>
+                  <c:v>1.7045182229905054</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AD14-4B58-A65B-777EFFEC0EA7}"/>
+              <c16:uniqueId val="{00000003-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>AllocAPI</c:v>
+            <c:v>TOTAL EXEC</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -637,12 +648,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -704,43 +712,43 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(BFS_1MW!$D$7,BFS_1MW!$D$17,BFS_1MW!$D$27,BFS_1MW!$D$37,BFS_1MW!$D$47)</c:f>
+              <c:f>(BFS_1MW!$J$9,BFS_1MW!$J$19,BFS_1MW!$J$29,BFS_1MW!$J$39,BFS_1MW!$J$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>31.069397095999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>173.90284</c:v>
+                  <c:v>0.82337066201561782</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.992290248</c:v>
+                  <c:v>0.97985611573632536</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.5472693867735</c:v>
+                  <c:v>0.86495985883069426</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.841906816</c:v>
+                  <c:v>0.87499260002405865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AD14-4B58-A65B-777EFFEC0EA7}"/>
+              <c16:uniqueId val="{00000000-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>COPY API</c:v>
+            <c:v>KERNEL LAUNCH API</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -749,26 +757,6 @@
             <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-AD14-4B58-A65B-777EFFEC0EA7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:dLbls>
             <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
@@ -785,12 +773,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -852,39 +837,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(BFS_1MW!$E$7,BFS_1MW!$E$17,BFS_1MW!$E$27,BFS_1MW!$E$37,BFS_1MW!$E$47)</c:f>
+              <c:f>(BFS_1MW!$C$9,BFS_1MW!$C$19,BFS_1MW!$C$29,BFS_1MW!$C$39,BFS_1MW!$C$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.378190588</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3097826593999999</c:v>
+                  <c:v>0.96042306786761289</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.38645076</c:v>
+                  <c:v>1.3240591394978627</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4154219278557101</c:v>
+                  <c:v>1.0268503670189781</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3491509719999999</c:v>
+                  <c:v>5.1553041909837685</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-AD14-4B58-A65B-777EFFEC0EA7}"/>
+              <c16:uniqueId val="{00000001-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
-            <c:v>TOTAL EXEC</c:v>
+            <c:v>AllocAPI</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -913,12 +898,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -980,31 +962,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(BFS_1MW!$J$7,BFS_1MW!$J$17,BFS_1MW!$J$27,BFS_1MW!$J$37,BFS_1MW!$J$47)</c:f>
+              <c:f>(BFS_1MW!$D$9,BFS_1MW!$D$19,BFS_1MW!$D$29,BFS_1MW!$D$39,BFS_1MW!$D$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2436.7841386240002</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2006.376569408</c:v>
+                  <c:v>5.5972389635584197</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2387.6978409600001</c:v>
+                  <c:v>6.4123878614190929E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2107.7204645450902</c:v>
+                  <c:v>0.50040460517256447</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2132.168089152</c:v>
+                  <c:v>0.50988780912132836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-AD14-4B58-A65B-777EFFEC0EA7}"/>
+              <c16:uniqueId val="{00000006-4090-4208-93DC-0834A68FB2CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1021,149 +1003,7 @@
         <c:axId val="2057779183"/>
         <c:axId val="2057779663"/>
         <c:axId val="1524889007"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:v>SYNC API</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent4"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                  <a:sp3d/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="es-ES"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(BFS_1MW!$A$1,BFS_1MW!$A$11,BFS_1MW!$A$21,BFS_1MW!$A$31,BFS_1MW!$A$41)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>traditional allocation</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>OPT traditional allocation</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>ScatterAlloc</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Zero-Copy</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Unified Memory</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>([1]gaussian1024!$F$7,[1]gaussian1024!$F$17,[1]gaussian1024!$F$27,[1]gaussian1024!$F$37)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>0.49685522645290497</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.52853861533333302</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.59037115000000007</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.55035044</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-AD14-4B58-A65B-777EFFEC0EA7}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:bar3DChart>
       <c:catAx>
         <c:axId val="2057779183"/>
@@ -1194,12 +1034,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1220,6 +1057,7 @@
         <c:axId val="2057779663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1245,12 +1083,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1259,11 +1094,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>TIme (ms)</a:t>
+                  <a:t>Time factor</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.444834467933232E-2"/>
+              <c:y val="0.37106564582373364"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1277,12 +1120,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1309,12 +1149,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1346,16 +1183,13 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="180000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1383,7 +1217,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:sysClr val="windowText" lastClr="000000"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -3410,9 +3244,10 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
-      <c:rotX val="15"/>
+      <c:rotX val="40"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="0"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -3453,10 +3288,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14950702697032431"/>
+          <c:x val="8.7206391626089008E-2"/>
           <c:y val="2.2770647303387497E-2"/>
-          <c:w val="0.63056231345566849"/>
-          <c:h val="0.78675249332111152"/>
+          <c:w val="0.74041050325388946"/>
+          <c:h val="0.81955410382548477"/>
         </c:manualLayout>
       </c:layout>
       <c:bar3DChart>
@@ -3504,12 +3339,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3571,30 +3403,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(BFS_1MW!$G$7,BFS_1MW!$G$17,BFS_1MW!$G$27,BFS_1MW!$G$35,BFS_1MW!$G$45)</c:f>
+              <c:f>(BFS_1MW!$G$9,BFS_1MW!$G$19,BFS_1MW!$G$29,BFS_1MW!$G$39,BFS_1MW!$G$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.15623157600000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11054957180000001</c:v>
+                  <c:v>0.70760069526534131</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.161549526</c:v>
+                  <c:v>1.0340388936484901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BFDC-4A13-8A93-6E0A86668706}"/>
+              <c16:uniqueId val="{00000001-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="4"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -3609,7 +3447,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3634,12 +3472,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3701,30 +3536,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(BFS_1MW!$F$7,BFS_1MW!$F$17,BFS_1MW!$F$27,BFS_1MW!$F$36,BFS_1MW!$F$46)</c:f>
+              <c:f>(BFS_1MW!$F$9,BFS_1MW!$F$19,BFS_1MW!$F$29,BFS_1MW!$F$39,BFS_1MW!$F$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.54395599399999994</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37815142299999999</c:v>
+                  <c:v>0.69518752834994957</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55341872800000003</c:v>
+                  <c:v>1.0173961388501587</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BFDC-4A13-8A93-6E0A86668706}"/>
+              <c16:uniqueId val="{00000006-4090-4208-93DC-0834A68FB2CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -3739,7 +3580,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3764,12 +3605,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3831,36 +3669,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(BFS_1MW!$I$7,BFS_1MW!$I$17,BFS_1MW!$I$27,BFS_1MW!$I$37,BFS_1MW!$I$47)</c:f>
+              <c:f>(BFS_1MW!$I$9,BFS_1MW!$I$19,BFS_1MW!$I$29,BFS_1MW!$I$39,BFS_1MW!$I$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.27016586999999997</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24792154060000002</c:v>
+                  <c:v>0.91766417645574561</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26993850199999997</c:v>
+                  <c:v>0.99915841331105215</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.343846120240481</c:v>
+                  <c:v>1.272722273322241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.31858488400000001</c:v>
+                  <c:v>1.1792195809189372</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BFDC-4A13-8A93-6E0A86668706}"/>
+              <c16:uniqueId val="{00000003-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="0"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
@@ -3875,7 +3713,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3900,12 +3738,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3967,31 +3802,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(BFS_1MW!$H$7,BFS_1MW!$H$17,BFS_1MW!$H$27,BFS_1MW!$H$37,BFS_1MW!$H$47)</c:f>
+              <c:f>(BFS_1MW!$H$9,BFS_1MW!$H$19,BFS_1MW!$H$29,BFS_1MW!$H$39,BFS_1MW!$H$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.773735592</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7047013054</c:v>
+                  <c:v>0.96107971959780125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.773756798</c:v>
+                  <c:v>1.0000119555587066</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.99254321042084</c:v>
+                  <c:v>1.1233597721146931</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8590514599999999</c:v>
+                  <c:v>1.0480995410955254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BFDC-4A13-8A93-6E0A86668706}"/>
+              <c16:uniqueId val="{00000000-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4008,6 +3843,7 @@
         <c:axId val="2057779183"/>
         <c:axId val="2057779663"/>
         <c:axId val="1524889007"/>
+        <c:extLst/>
       </c:bar3DChart>
       <c:catAx>
         <c:axId val="2057779183"/>
@@ -4038,12 +3874,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4089,12 +3922,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4103,7 +3933,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>Title</a:t>
+                  <a:t>Time factor</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4112,8 +3942,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.4773034421313213E-2"/>
-              <c:y val="0.34692423134188027"/>
+              <c:x val="1.444834467933232E-2"/>
+              <c:y val="0.37106564582373364"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4129,12 +3959,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4161,12 +3988,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4198,16 +4022,13 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="180000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4235,7 +4056,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:sysClr val="windowText" lastClr="000000"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -4283,9 +4104,10 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
-      <c:rotX val="15"/>
+      <c:rotX val="40"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="0"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -4321,20 +4143,30 @@
       </c:spPr>
     </c:backWall>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7206391626089008E-2"/>
+          <c:y val="2.2770647303387497E-2"/>
+          <c:w val="0.74041050325388946"/>
+          <c:h val="0.81955410382548477"/>
+        </c:manualLayout>
+      </c:layout>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>KERNEL LAUNCH API</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4359,12 +4191,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4426,43 +4255,43 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(BFS_4096!$C$7,BFS_4096!$C$17,BFS_4096!$C$27,BFS_4096!$C$37,BFS_4096!$C$47)</c:f>
+              <c:f>(BFS_4096!$C$9,BFS_4096!$C$19,BFS_4096!$C$29,BFS_4096!$C$39,BFS_4096!$C$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.8111532E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5124884E-2</c:v>
+                  <c:v>0.83509688744165878</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6085572000000001E-2</c:v>
+                  <c:v>1.4402741855299708</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9778776000000001E-2</c:v>
+                  <c:v>1.0920542779042657</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4229596000000003E-2</c:v>
+                  <c:v>1.3377993645153818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0C10-4D43-9F5A-194BA42BA212}"/>
+              <c16:uniqueId val="{00000001-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>AllocAPI</c:v>
+            <c:v>TOTAL EXEC</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4487,12 +4316,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4554,43 +4380,43 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(BFS_4096!$D$7,BFS_4096!$D$17,BFS_4096!$D$27,BFS_4096!$D$37,BFS_4096!$D$47)</c:f>
+              <c:f>(BFS_4096!$J$9,BFS_4096!$J$19,BFS_4096!$J$29,BFS_4096!$J$39,BFS_4096!$J$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>28.443196743999998</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>165.62708384000001</c:v>
+                  <c:v>0.83676756077654324</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11290716000000001</c:v>
+                  <c:v>1.0263532647901672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2288661759999999</c:v>
+                  <c:v>0.99749916467774224</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42888729599999997</c:v>
+                  <c:v>0.98100155507672104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0C10-4D43-9F5A-194BA42BA212}"/>
+              <c16:uniqueId val="{00000000-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="4"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>COPY API</c:v>
+            <c:v>AllocAPI</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4599,26 +4425,6 @@
             <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-0C10-4D43-9F5A-194BA42BA212}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:dLbls>
             <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
@@ -4635,12 +4441,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4702,43 +4505,43 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(BFS_4096!$E$7,BFS_4096!$E$17,BFS_4096!$E$27,BFS_4096!$E$37,BFS_4096!$E$47)</c:f>
+              <c:f>(BFS_4096!$D$9,BFS_4096!$D$19,BFS_4096!$D$29,BFS_4096!$D$39,BFS_4096!$D$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9.3845498000000013E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11473287300000001</c:v>
+                  <c:v>5.8230825926744156</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.103659818</c:v>
+                  <c:v>3.9695664666742287E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16873352</c:v>
+                  <c:v>4.3204221630229571E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27862760399999997</c:v>
+                  <c:v>1.507873042049932E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0C10-4D43-9F5A-194BA42BA212}"/>
+              <c16:uniqueId val="{00000006-4090-4208-93DC-0834A68FB2CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
-            <c:v>TOTAL EXEC</c:v>
+            <c:v>COPY API</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4763,12 +4566,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4830,31 +4630,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(BFS_4096!$J$7,BFS_4096!$J$17,BFS_4096!$J$27,BFS_4096!$J$37,BFS_4096!$J$47)</c:f>
+              <c:f>(BFS_4096!$E$9,BFS_4096!$E$19,BFS_4096!$E$29,BFS_4096!$E$39,BFS_4096!$E$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>253.33341478400001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>211.98118355199998</c:v>
+                  <c:v>1.2225719447937715</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>260.00957734400004</c:v>
+                  <c:v>1.1045795505288916</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>252.699869632</c:v>
+                  <c:v>1.797992696463713</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>248.520473856</c:v>
+                  <c:v>2.9690034145271404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-0C10-4D43-9F5A-194BA42BA212}"/>
+              <c16:uniqueId val="{00000003-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4871,149 +4671,7 @@
         <c:axId val="2057779183"/>
         <c:axId val="2057779663"/>
         <c:axId val="1524889007"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:v>SYNC API</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent4"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                  <a:sp3d/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="es-ES"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(BFS_4096!$A$1,BFS_4096!$A$11,BFS_4096!$A$21,BFS_4096!$A$31,BFS_4096!$A$41)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>traditional allocation</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>OPT traditional allocation</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>ScatterAlloc</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Zero-Copy</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Unified Memory</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>([1]gaussian1024!$F$7,[1]gaussian1024!$F$17,[1]gaussian1024!$F$27,[1]gaussian1024!$F$37)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>0.49685522645290497</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.52853861533333302</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.59037115000000007</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.55035044</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-0C10-4D43-9F5A-194BA42BA212}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:bar3DChart>
       <c:catAx>
         <c:axId val="2057779183"/>
@@ -5044,12 +4702,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5095,12 +4750,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5109,11 +4761,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>TIme (ms)</a:t>
+                  <a:t>Time factor</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="5.8329390780581927E-2"/>
+              <c:y val="0.33472251527845776"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5127,12 +4787,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -5159,12 +4816,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5196,16 +4850,13 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="180000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5233,7 +4884,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:sysClr val="windowText" lastClr="000000"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -5281,9 +4932,10 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
-      <c:rotX val="15"/>
+      <c:rotX val="40"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="0"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -5324,10 +4976,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14950702697032431"/>
+          <c:x val="8.7206391626089008E-2"/>
           <c:y val="2.2770647303387497E-2"/>
-          <c:w val="0.63056231345566849"/>
-          <c:h val="0.78675249332111152"/>
+          <c:w val="0.74041050325388946"/>
+          <c:h val="0.81955410382548477"/>
         </c:manualLayout>
       </c:layout>
       <c:bar3DChart>
@@ -5335,7 +4987,7 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -5350,7 +5002,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -5375,12 +5027,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5442,30 +5091,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(BFS_4096!$F$7,BFS_4096!$F$17,BFS_4096!$F$27,BFS_4096!$F$36,BFS_4096!$F$45)</c:f>
+              <c:f>(BFS_4096!$F$9,BFS_4096!$F$19,BFS_4096!$F$29,BFS_4096!$F$39,BFS_4096!$F$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.2932619999999999E-3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9059419999999999E-3</c:v>
+                  <c:v>0.90978421535885767</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2959539999999994E-3</c:v>
+                  <c:v>1.0006270290515695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B6E7-422F-8FB8-F24FEBBDA0F5}"/>
+              <c16:uniqueId val="{00000001-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="4"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -5480,7 +5135,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -5505,12 +5160,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5572,30 +5224,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(BFS_4096!$G$7,BFS_4096!$G$17,BFS_4096!$G$27,BFS_4096!$G$35,BFS_4096!$G$45)</c:f>
+              <c:f>(BFS_4096!$G$9,BFS_4096!$G$19,BFS_4096!$G$29,BFS_4096!$G$39,BFS_4096!$G$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.9801999999999997E-3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6440328E-3</c:v>
+                  <c:v>0.8871997852493122</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9983539999999999E-3</c:v>
+                  <c:v>1.006091537480706</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B6E7-422F-8FB8-F24FEBBDA0F5}"/>
+              <c16:uniqueId val="{00000006-4090-4208-93DC-0834A68FB2CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -5610,7 +5268,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -5635,12 +5293,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5702,36 +5357,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(BFS_4096!$I$7,BFS_4096!$I$17,BFS_4096!$I$27,BFS_4096!$I$37,BFS_4096!$I$47)</c:f>
+              <c:f>(BFS_4096!$I$9,BFS_4096!$I$19,BFS_4096!$I$29,BFS_4096!$I$39,BFS_4096!$I$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.7360000000000007E-3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3996000000000001E-3</c:v>
+                  <c:v>0.96149267399267391</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.4557839999999992E-3</c:v>
+                  <c:v>0.96792399267399254</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0660008E-2</c:v>
+                  <c:v>1.2202390109890109</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2488928E-2</c:v>
+                  <c:v>1.4295934065934064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B6E7-422F-8FB8-F24FEBBDA0F5}"/>
+              <c16:uniqueId val="{00000003-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="0"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
@@ -5746,7 +5401,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -5771,12 +5426,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5838,31 +5490,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(BFS_4096!$H$7,BFS_4096!$H$17,BFS_4096!$H$27,BFS_4096!$H$37,BFS_4096!$H$47)</c:f>
+              <c:f>(BFS_4096!$H$9,BFS_4096!$H$19,BFS_4096!$H$29,BFS_4096!$H$39,BFS_4096!$H$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.3446671999999998E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2612535999999999E-2</c:v>
+                  <c:v>0.96442411955095375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3740063999999998E-2</c:v>
+                  <c:v>1.0125131617826189</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4831784E-2</c:v>
+                  <c:v>1.9120745153086118</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0894175999999997E-2</c:v>
+                  <c:v>1.7441356282887397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-B6E7-422F-8FB8-F24FEBBDA0F5}"/>
+              <c16:uniqueId val="{00000000-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5879,6 +5531,7 @@
         <c:axId val="2057779183"/>
         <c:axId val="2057779663"/>
         <c:axId val="1524889007"/>
+        <c:extLst/>
       </c:bar3DChart>
       <c:catAx>
         <c:axId val="2057779183"/>
@@ -5909,12 +5562,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5960,12 +5610,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5974,7 +5621,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>Title</a:t>
+                  <a:t>Time factor</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5983,8 +5630,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.4773034421313213E-2"/>
-              <c:y val="0.34692423134188027"/>
+              <c:x val="5.1257394268668356E-2"/>
+              <c:y val="0.3326649746672537"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6000,12 +5647,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -6032,12 +5676,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6069,16 +5710,13 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="180000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6106,7 +5744,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:sysClr val="windowText" lastClr="000000"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -16241,15 +15879,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>404813</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>214312</xdr:rowOff>
+      <xdr:colOff>58450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>260551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>125592</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>67001</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>121227</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16278,16 +15916,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>214313</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>418062</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>37320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>613954</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>37204</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>86590</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>86590</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16321,16 +15959,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>588818</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342552</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>86591</xdr:rowOff>
+      <xdr:rowOff>230850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>309597</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>140604</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>275186</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>84685</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16359,16 +15997,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>321424</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>65463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>325010</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>238797</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18352,10 +17990,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:AJ59"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18372,89 +18010,39 @@
     <col min="10" max="10" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:36" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+    <row r="2" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
     </row>
-    <row r="3" spans="1:36" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="22" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="25"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="1"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
     </row>
-    <row r="4" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
@@ -18482,33 +18070,8 @@
       <c r="J4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -18539,33 +18102,8 @@
       <c r="J5" s="4">
         <v>2436.7841386240002</v>
       </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
     </row>
-    <row r="6" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -18596,33 +18134,8 @@
       <c r="J6" s="7">
         <v>71.475791085188803</v>
       </c>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="31"/>
-      <c r="AI6" s="31"/>
-      <c r="AJ6" s="31"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -18661,33 +18174,8 @@
       <c r="J7" s="4">
         <v>2436.7841386240002</v>
       </c>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="31"/>
-      <c r="AF7" s="31"/>
-      <c r="AG7" s="31"/>
-      <c r="AH7" s="31"/>
-      <c r="AI7" s="31"/>
-      <c r="AJ7" s="31"/>
     </row>
-    <row r="8" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -18726,194 +18214,83 @@
       <c r="J8" s="7">
         <v>71.475791085188803</v>
       </c>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="31"/>
-      <c r="AF8" s="31"/>
-      <c r="AG8" s="31"/>
-      <c r="AH8" s="31"/>
-      <c r="AI8" s="31"/>
-      <c r="AJ8" s="31"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="31"/>
-      <c r="AI9" s="31"/>
-      <c r="AJ9" s="31"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="31">
+        <f>B7/B$7</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="31">
+        <f t="shared" ref="C9:K9" si="3">C7/C$7</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="31"/>
     </row>
-    <row r="10" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="31"/>
-      <c r="AI10" s="31"/>
-      <c r="AJ10" s="31"/>
-    </row>
-    <row r="11" spans="1:36" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="31"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="31"/>
-      <c r="AF11" s="31"/>
-      <c r="AG11" s="31"/>
-      <c r="AH11" s="31"/>
-      <c r="AI11" s="31"/>
-      <c r="AJ11" s="31"/>
     </row>
-    <row r="12" spans="1:36" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
+    <row r="12" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="31"/>
-      <c r="AF12" s="31"/>
-      <c r="AG12" s="31"/>
-      <c r="AH12" s="31"/>
-      <c r="AI12" s="31"/>
-      <c r="AJ12" s="31"/>
     </row>
-    <row r="13" spans="1:36" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="22" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24" t="s">
+      <c r="G13" s="29"/>
+      <c r="H13" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="25"/>
+      <c r="I13" s="23"/>
       <c r="J13" s="1"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="31"/>
-      <c r="AF13" s="31"/>
-      <c r="AG13" s="31"/>
-      <c r="AH13" s="31"/>
-      <c r="AI13" s="31"/>
-      <c r="AJ13" s="31"/>
     </row>
-    <row r="14" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
         <v>4</v>
       </c>
@@ -18941,33 +18318,8 @@
       <c r="J14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="31"/>
-      <c r="AH14" s="31"/>
-      <c r="AI14" s="31"/>
-      <c r="AJ14" s="31"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -18996,33 +18348,8 @@
       <c r="J15" s="4">
         <v>2006.376569408</v>
       </c>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="31"/>
-      <c r="AG15" s="31"/>
-      <c r="AH15" s="31"/>
-      <c r="AI15" s="31"/>
-      <c r="AJ15" s="31"/>
     </row>
-    <row r="16" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -19051,33 +18378,8 @@
       <c r="J16" s="7">
         <v>2420.3652529392102</v>
       </c>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="31"/>
-      <c r="AF16" s="31"/>
-      <c r="AG16" s="31"/>
-      <c r="AH16" s="31"/>
-      <c r="AI16" s="31"/>
-      <c r="AJ16" s="31"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -19086,15 +18388,15 @@
         <v>0</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" ref="C17:E17" si="3">C15/1000000</f>
+        <f t="shared" ref="C17:E17" si="4">C15/1000000</f>
         <v>2.33821642E-2</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>173.90284</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3097826593999999</v>
       </c>
       <c r="F17" s="2">
@@ -19102,48 +18404,23 @@
         <v>0.37815142299999999</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" ref="G17:I18" si="4">G15/1000000</f>
+        <f t="shared" ref="G17:I18" si="5">G15/1000000</f>
         <v>0.11054957180000001</v>
       </c>
       <c r="H17" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7047013054</v>
       </c>
       <c r="I17" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.24792154060000002</v>
       </c>
       <c r="J17" s="4">
         <f>J15</f>
         <v>2006.376569408</v>
       </c>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="31"/>
-      <c r="AD17" s="31"/>
-      <c r="AE17" s="31"/>
-      <c r="AF17" s="31"/>
-      <c r="AG17" s="31"/>
-      <c r="AH17" s="31"/>
-      <c r="AI17" s="31"/>
-      <c r="AJ17" s="31"/>
     </row>
-    <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -19152,15 +18429,15 @@
         <v>0</v>
       </c>
       <c r="C18" s="6">
-        <f t="shared" ref="C18:E18" si="5">C16/1000000</f>
+        <f t="shared" ref="C18:E18" si="6">C16/1000000</f>
         <v>4.3505008944400101E-3</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0035289586240497</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.3021242452310596E-2</v>
       </c>
       <c r="F18" s="5">
@@ -19168,209 +18445,97 @@
         <v>2.2225114981435902E-2</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" ref="G18" si="6">G16/1000000</f>
+        <f t="shared" ref="G18" si="7">G16/1000000</f>
         <v>2.15394668566267E-2</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.119214324886456</v>
       </c>
       <c r="I18" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6141338535882E-2</v>
       </c>
       <c r="J18" s="7">
         <f>J16</f>
         <v>2420.3652529392102</v>
       </c>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="31"/>
-      <c r="AG18" s="31"/>
-      <c r="AH18" s="31"/>
-      <c r="AI18" s="31"/>
-      <c r="AJ18" s="31"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="31"/>
-      <c r="AF19" s="31"/>
-      <c r="AG19" s="31"/>
-      <c r="AH19" s="31"/>
-      <c r="AI19" s="31"/>
-      <c r="AJ19" s="31"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="31">
+        <f>B17/B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="31">
+        <f t="shared" ref="C19:J19" si="8">C17/C$7</f>
+        <v>0.96042306786761289</v>
+      </c>
+      <c r="D19" s="31">
+        <f t="shared" si="8"/>
+        <v>5.5972389635584197</v>
+      </c>
+      <c r="E19" s="31">
+        <f t="shared" si="8"/>
+        <v>0.95036395604814561</v>
+      </c>
+      <c r="F19" s="31">
+        <f t="shared" si="8"/>
+        <v>0.69518752834994957</v>
+      </c>
+      <c r="G19" s="31">
+        <f t="shared" si="8"/>
+        <v>0.70760069526534131</v>
+      </c>
+      <c r="H19" s="31">
+        <f t="shared" si="8"/>
+        <v>0.96107971959780125</v>
+      </c>
+      <c r="I19" s="31">
+        <f t="shared" si="8"/>
+        <v>0.91766417645574561</v>
+      </c>
+      <c r="J19" s="31">
+        <f t="shared" si="8"/>
+        <v>0.82337066201561782</v>
+      </c>
     </row>
-    <row r="20" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="31"/>
-      <c r="AE20" s="31"/>
-      <c r="AF20" s="31"/>
-      <c r="AG20" s="31"/>
-      <c r="AH20" s="31"/>
-      <c r="AI20" s="31"/>
-      <c r="AJ20" s="31"/>
-    </row>
-    <row r="21" spans="1:36" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="27"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="31"/>
-      <c r="AE21" s="31"/>
-      <c r="AF21" s="31"/>
-      <c r="AG21" s="31"/>
-      <c r="AH21" s="31"/>
-      <c r="AI21" s="31"/>
-      <c r="AJ21" s="31"/>
     </row>
-    <row r="22" spans="1:36" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
+    <row r="22" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="31"/>
-      <c r="AD22" s="31"/>
-      <c r="AE22" s="31"/>
-      <c r="AF22" s="31"/>
-      <c r="AG22" s="31"/>
-      <c r="AH22" s="31"/>
-      <c r="AI22" s="31"/>
-      <c r="AJ22" s="31"/>
     </row>
-    <row r="23" spans="1:36" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="24" t="s">
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="24" t="s">
+      <c r="G23" s="23"/>
+      <c r="H23" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="25"/>
+      <c r="I23" s="23"/>
       <c r="J23" s="1"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31"/>
-      <c r="AB23" s="31"/>
-      <c r="AC23" s="31"/>
-      <c r="AD23" s="31"/>
-      <c r="AE23" s="31"/>
-      <c r="AF23" s="31"/>
-      <c r="AG23" s="31"/>
-      <c r="AH23" s="31"/>
-      <c r="AI23" s="31"/>
-      <c r="AJ23" s="31"/>
     </row>
-    <row r="24" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="8" t="s">
         <v>4</v>
       </c>
@@ -19398,33 +18563,8 @@
       <c r="J24" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="31"/>
-      <c r="AF24" s="31"/>
-      <c r="AG24" s="31"/>
-      <c r="AH24" s="31"/>
-      <c r="AI24" s="31"/>
-      <c r="AJ24" s="31"/>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
@@ -19455,33 +18595,8 @@
       <c r="J25" s="16">
         <v>2387.6978409600001</v>
       </c>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="31"/>
-      <c r="AE25" s="31"/>
-      <c r="AF25" s="31"/>
-      <c r="AG25" s="31"/>
-      <c r="AH25" s="31"/>
-      <c r="AI25" s="31"/>
-      <c r="AJ25" s="31"/>
     </row>
-    <row r="26" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>13</v>
       </c>
@@ -19512,33 +18627,8 @@
       <c r="J26" s="17">
         <v>25.9480504406359</v>
       </c>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="31"/>
-      <c r="AB26" s="31"/>
-      <c r="AC26" s="31"/>
-      <c r="AD26" s="31"/>
-      <c r="AE26" s="31"/>
-      <c r="AF26" s="31"/>
-      <c r="AG26" s="31"/>
-      <c r="AH26" s="31"/>
-      <c r="AI26" s="31"/>
-      <c r="AJ26" s="31"/>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -19547,15 +18637,15 @@
         <v>0.54477631199999998</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" ref="C27:E27" si="7">C25/1000000</f>
+        <f t="shared" ref="C27:E27" si="9">C25/1000000</f>
         <v>3.2235135999999998E-2</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.992290248</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.38645076</v>
       </c>
       <c r="F27" s="2">
@@ -19563,47 +18653,22 @@
         <v>0.55341872800000003</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" ref="G27:I28" si="8">G25/1000000</f>
+        <f t="shared" ref="G27:I28" si="10">G25/1000000</f>
         <v>0.161549526</v>
       </c>
       <c r="H27" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.773756798</v>
       </c>
       <c r="I27" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.26993850199999997</v>
       </c>
       <c r="J27" s="16">
         <v>2387.6978409600001</v>
       </c>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-      <c r="AA27" s="31"/>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="31"/>
-      <c r="AD27" s="31"/>
-      <c r="AE27" s="31"/>
-      <c r="AF27" s="31"/>
-      <c r="AG27" s="31"/>
-      <c r="AH27" s="31"/>
-      <c r="AI27" s="31"/>
-      <c r="AJ27" s="31"/>
     </row>
-    <row r="28" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>15</v>
       </c>
@@ -19612,15 +18677,15 @@
         <v>4.7578427805588103E-2</v>
       </c>
       <c r="C28" s="6">
-        <f t="shared" ref="C28:E28" si="9">C26/1000000</f>
+        <f t="shared" ref="C28:E28" si="11">C26/1000000</f>
         <v>4.3880125713306999E-3</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8.3217243394086995E-2</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.11032299040167801</v>
       </c>
       <c r="F28" s="5">
@@ -19628,208 +18693,96 @@
         <v>3.3465899025024302E-2</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" ref="G28" si="10">G26/1000000</f>
+        <f t="shared" ref="G28" si="12">G26/1000000</f>
         <v>1.8335803644452E-2</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.13153796264852399</v>
       </c>
       <c r="I28" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.54612692538444E-2</v>
       </c>
       <c r="J28" s="17">
         <v>25.9480504406359</v>
       </c>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-      <c r="AA28" s="31"/>
-      <c r="AB28" s="31"/>
-      <c r="AC28" s="31"/>
-      <c r="AD28" s="31"/>
-      <c r="AE28" s="31"/>
-      <c r="AF28" s="31"/>
-      <c r="AG28" s="31"/>
-      <c r="AH28" s="31"/>
-      <c r="AI28" s="31"/>
-      <c r="AJ28" s="31"/>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="31"/>
-      <c r="AD29" s="31"/>
-      <c r="AE29" s="31"/>
-      <c r="AF29" s="31"/>
-      <c r="AG29" s="31"/>
-      <c r="AH29" s="31"/>
-      <c r="AI29" s="31"/>
-      <c r="AJ29" s="31"/>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="31">
+        <f>B27/B$7</f>
+        <v>1.0023173488177441</v>
+      </c>
+      <c r="C29" s="31">
+        <f t="shared" ref="C29:J29" si="13">C27/C$7</f>
+        <v>1.3240591394978627</v>
+      </c>
+      <c r="D29" s="31">
+        <f t="shared" si="13"/>
+        <v>6.4123878614190929E-2</v>
+      </c>
+      <c r="E29" s="31">
+        <f t="shared" si="13"/>
+        <v>1.0059934903575178</v>
+      </c>
+      <c r="F29" s="31">
+        <f t="shared" si="13"/>
+        <v>1.0173961388501587</v>
+      </c>
+      <c r="G29" s="31">
+        <f t="shared" si="13"/>
+        <v>1.0340388936484901</v>
+      </c>
+      <c r="H29" s="31">
+        <f t="shared" si="13"/>
+        <v>1.0000119555587066</v>
+      </c>
+      <c r="I29" s="31">
+        <f t="shared" si="13"/>
+        <v>0.99915841331105215</v>
+      </c>
+      <c r="J29" s="31">
+        <f t="shared" si="13"/>
+        <v>0.97985611573632536</v>
+      </c>
     </row>
-    <row r="30" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="31"/>
-      <c r="AD30" s="31"/>
-      <c r="AE30" s="31"/>
-      <c r="AF30" s="31"/>
-      <c r="AG30" s="31"/>
-      <c r="AH30" s="31"/>
-      <c r="AI30" s="31"/>
-      <c r="AJ30" s="31"/>
-    </row>
-    <row r="31" spans="1:36" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="s">
+    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="A31" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="27"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="31"/>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="31"/>
-      <c r="AA31" s="31"/>
-      <c r="AB31" s="31"/>
-      <c r="AC31" s="31"/>
-      <c r="AD31" s="31"/>
-      <c r="AE31" s="31"/>
-      <c r="AF31" s="31"/>
-      <c r="AG31" s="31"/>
-      <c r="AH31" s="31"/>
-      <c r="AI31" s="31"/>
-      <c r="AJ31" s="31"/>
     </row>
-    <row r="32" spans="1:36" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
+    <row r="32" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="26"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="31"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="31"/>
-      <c r="AA32" s="31"/>
-      <c r="AB32" s="31"/>
-      <c r="AC32" s="31"/>
-      <c r="AD32" s="31"/>
-      <c r="AE32" s="31"/>
-      <c r="AF32" s="31"/>
-      <c r="AG32" s="31"/>
-      <c r="AH32" s="31"/>
-      <c r="AI32" s="31"/>
-      <c r="AJ32" s="31"/>
     </row>
-    <row r="33" spans="1:36" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="22" t="s">
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="28" t="s">
         <v>2</v>
       </c>
       <c r="G33" s="30"/>
-      <c r="H33" s="24" t="s">
+      <c r="H33" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="25"/>
+      <c r="I33" s="23"/>
       <c r="J33" s="1"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="31"/>
-      <c r="Z33" s="31"/>
-      <c r="AA33" s="31"/>
-      <c r="AB33" s="31"/>
-      <c r="AC33" s="31"/>
-      <c r="AD33" s="31"/>
-      <c r="AE33" s="31"/>
-      <c r="AF33" s="31"/>
-      <c r="AG33" s="31"/>
-      <c r="AH33" s="31"/>
-      <c r="AI33" s="31"/>
-      <c r="AJ33" s="31"/>
     </row>
-    <row r="34" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="8" t="s">
         <v>4</v>
       </c>
@@ -19857,33 +18810,8 @@
       <c r="J34" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="31"/>
-      <c r="AA34" s="31"/>
-      <c r="AB34" s="31"/>
-      <c r="AC34" s="31"/>
-      <c r="AD34" s="31"/>
-      <c r="AE34" s="31"/>
-      <c r="AF34" s="31"/>
-      <c r="AG34" s="31"/>
-      <c r="AH34" s="31"/>
-      <c r="AI34" s="31"/>
-      <c r="AJ34" s="31"/>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>12</v>
       </c>
@@ -19908,33 +18836,8 @@
       <c r="J35" s="16">
         <v>2107.7204645450902</v>
       </c>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="31"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="31"/>
-      <c r="AC35" s="31"/>
-      <c r="AD35" s="31"/>
-      <c r="AE35" s="31"/>
-      <c r="AF35" s="31"/>
-      <c r="AG35" s="31"/>
-      <c r="AH35" s="31"/>
-      <c r="AI35" s="31"/>
-      <c r="AJ35" s="31"/>
     </row>
-    <row r="36" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>13</v>
       </c>
@@ -19959,33 +18862,8 @@
       <c r="J36" s="17">
         <v>65.334213244135498</v>
       </c>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="31"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="31"/>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="31"/>
-      <c r="AD36" s="31"/>
-      <c r="AE36" s="31"/>
-      <c r="AF36" s="31"/>
-      <c r="AG36" s="31"/>
-      <c r="AH36" s="31"/>
-      <c r="AI36" s="31"/>
-      <c r="AJ36" s="31"/>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
@@ -19994,15 +18872,15 @@
         <v>0</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" ref="C37:E37" si="11">C35/1000000</f>
+        <f t="shared" ref="C37:E37" si="14">C35/1000000</f>
         <v>2.4999382765531E-2</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>15.5472693867735</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4154219278557101</v>
       </c>
       <c r="F37" s="2">
@@ -20010,47 +18888,22 @@
         <v>0</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" ref="G37:I38" si="12">G35/1000000</f>
+        <f t="shared" ref="G37:I38" si="15">G35/1000000</f>
         <v>0</v>
       </c>
       <c r="H37" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.99254321042084</v>
       </c>
       <c r="I37" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.343846120240481</v>
       </c>
       <c r="J37" s="16">
         <v>2107.7204645450902</v>
       </c>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="31"/>
-      <c r="W37" s="31"/>
-      <c r="X37" s="31"/>
-      <c r="Y37" s="31"/>
-      <c r="Z37" s="31"/>
-      <c r="AA37" s="31"/>
-      <c r="AB37" s="31"/>
-      <c r="AC37" s="31"/>
-      <c r="AD37" s="31"/>
-      <c r="AE37" s="31"/>
-      <c r="AF37" s="31"/>
-      <c r="AG37" s="31"/>
-      <c r="AH37" s="31"/>
-      <c r="AI37" s="31"/>
-      <c r="AJ37" s="31"/>
     </row>
-    <row r="38" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>15</v>
       </c>
@@ -20059,15 +18912,15 @@
         <v>0</v>
       </c>
       <c r="C38" s="6">
-        <f t="shared" ref="C38:E38" si="13">C36/1000000</f>
+        <f t="shared" ref="C38:E38" si="16">C36/1000000</f>
         <v>3.4974384602041502E-3</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.23118380984536702</v>
       </c>
       <c r="E38" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.51208450169937092</v>
       </c>
       <c r="F38" s="5">
@@ -20075,208 +18928,96 @@
         <v>0</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" ref="G38" si="14">G36/1000000</f>
+        <f t="shared" ref="G38" si="17">G36/1000000</f>
         <v>0</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.15624743436612898</v>
       </c>
       <c r="I38" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.7413957103743898E-2</v>
       </c>
       <c r="J38" s="17">
         <v>65.334213244135498</v>
       </c>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="31"/>
-      <c r="AA38" s="31"/>
-      <c r="AB38" s="31"/>
-      <c r="AC38" s="31"/>
-      <c r="AD38" s="31"/>
-      <c r="AE38" s="31"/>
-      <c r="AF38" s="31"/>
-      <c r="AG38" s="31"/>
-      <c r="AH38" s="31"/>
-      <c r="AI38" s="31"/>
-      <c r="AJ38" s="31"/>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="31"/>
-      <c r="U39" s="31"/>
-      <c r="V39" s="31"/>
-      <c r="W39" s="31"/>
-      <c r="X39" s="31"/>
-      <c r="Y39" s="31"/>
-      <c r="Z39" s="31"/>
-      <c r="AA39" s="31"/>
-      <c r="AB39" s="31"/>
-      <c r="AC39" s="31"/>
-      <c r="AD39" s="31"/>
-      <c r="AE39" s="31"/>
-      <c r="AF39" s="31"/>
-      <c r="AG39" s="31"/>
-      <c r="AH39" s="31"/>
-      <c r="AI39" s="31"/>
-      <c r="AJ39" s="31"/>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="31">
+        <f>B37/B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="31">
+        <f t="shared" ref="C39:J39" si="18">C37/C$7</f>
+        <v>1.0268503670189781</v>
+      </c>
+      <c r="D39" s="31">
+        <f t="shared" si="18"/>
+        <v>0.50040460517256447</v>
+      </c>
+      <c r="E39" s="31">
+        <f t="shared" si="18"/>
+        <v>1.0270146525305615</v>
+      </c>
+      <c r="F39" s="31">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="31">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="31">
+        <f t="shared" si="18"/>
+        <v>1.1233597721146931</v>
+      </c>
+      <c r="I39" s="31">
+        <f t="shared" si="18"/>
+        <v>1.272722273322241</v>
+      </c>
+      <c r="J39" s="31">
+        <f t="shared" si="18"/>
+        <v>0.86495985883069426</v>
+      </c>
     </row>
-    <row r="40" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="31"/>
-      <c r="S40" s="31"/>
-      <c r="T40" s="31"/>
-      <c r="U40" s="31"/>
-      <c r="V40" s="31"/>
-      <c r="W40" s="31"/>
-      <c r="X40" s="31"/>
-      <c r="Y40" s="31"/>
-      <c r="Z40" s="31"/>
-      <c r="AA40" s="31"/>
-      <c r="AB40" s="31"/>
-      <c r="AC40" s="31"/>
-      <c r="AD40" s="31"/>
-      <c r="AE40" s="31"/>
-      <c r="AF40" s="31"/>
-      <c r="AG40" s="31"/>
-      <c r="AH40" s="31"/>
-      <c r="AI40" s="31"/>
-      <c r="AJ40" s="31"/>
-    </row>
-    <row r="41" spans="1:36" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
+    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="A41" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="27"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="31"/>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="31"/>
-      <c r="S41" s="31"/>
-      <c r="T41" s="31"/>
-      <c r="U41" s="31"/>
-      <c r="V41" s="31"/>
-      <c r="W41" s="31"/>
-      <c r="X41" s="31"/>
-      <c r="Y41" s="31"/>
-      <c r="Z41" s="31"/>
-      <c r="AA41" s="31"/>
-      <c r="AB41" s="31"/>
-      <c r="AC41" s="31"/>
-      <c r="AD41" s="31"/>
-      <c r="AE41" s="31"/>
-      <c r="AF41" s="31"/>
-      <c r="AG41" s="31"/>
-      <c r="AH41" s="31"/>
-      <c r="AI41" s="31"/>
-      <c r="AJ41" s="31"/>
     </row>
-    <row r="42" spans="1:36" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="28"/>
-      <c r="B42" s="29"/>
+    <row r="42" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="26"/>
+      <c r="B42" s="27"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="31"/>
-      <c r="Q42" s="31"/>
-      <c r="R42" s="31"/>
-      <c r="S42" s="31"/>
-      <c r="T42" s="31"/>
-      <c r="U42" s="31"/>
-      <c r="V42" s="31"/>
-      <c r="W42" s="31"/>
-      <c r="X42" s="31"/>
-      <c r="Y42" s="31"/>
-      <c r="Z42" s="31"/>
-      <c r="AA42" s="31"/>
-      <c r="AB42" s="31"/>
-      <c r="AC42" s="31"/>
-      <c r="AD42" s="31"/>
-      <c r="AE42" s="31"/>
-      <c r="AF42" s="31"/>
-      <c r="AG42" s="31"/>
-      <c r="AH42" s="31"/>
-      <c r="AI42" s="31"/>
-      <c r="AJ42" s="31"/>
     </row>
-    <row r="43" spans="1:36" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="22" t="s">
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="28" t="s">
         <v>2</v>
       </c>
       <c r="G43" s="30"/>
-      <c r="H43" s="24" t="s">
+      <c r="H43" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="25"/>
+      <c r="I43" s="23"/>
       <c r="J43" s="1"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="31"/>
-      <c r="S43" s="31"/>
-      <c r="T43" s="31"/>
-      <c r="U43" s="31"/>
-      <c r="V43" s="31"/>
-      <c r="W43" s="31"/>
-      <c r="X43" s="31"/>
-      <c r="Y43" s="31"/>
-      <c r="Z43" s="31"/>
-      <c r="AA43" s="31"/>
-      <c r="AB43" s="31"/>
-      <c r="AC43" s="31"/>
-      <c r="AD43" s="31"/>
-      <c r="AE43" s="31"/>
-      <c r="AF43" s="31"/>
-      <c r="AG43" s="31"/>
-      <c r="AH43" s="31"/>
-      <c r="AI43" s="31"/>
-      <c r="AJ43" s="31"/>
     </row>
-    <row r="44" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="8" t="s">
         <v>4</v>
       </c>
@@ -20304,33 +19045,8 @@
       <c r="J44" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="31"/>
-      <c r="R44" s="31"/>
-      <c r="S44" s="31"/>
-      <c r="T44" s="31"/>
-      <c r="U44" s="31"/>
-      <c r="V44" s="31"/>
-      <c r="W44" s="31"/>
-      <c r="X44" s="31"/>
-      <c r="Y44" s="31"/>
-      <c r="Z44" s="31"/>
-      <c r="AA44" s="31"/>
-      <c r="AB44" s="31"/>
-      <c r="AC44" s="31"/>
-      <c r="AD44" s="31"/>
-      <c r="AE44" s="31"/>
-      <c r="AF44" s="31"/>
-      <c r="AG44" s="31"/>
-      <c r="AH44" s="31"/>
-      <c r="AI44" s="31"/>
-      <c r="AJ44" s="31"/>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
@@ -20355,33 +19071,8 @@
       <c r="J45" s="16">
         <v>2132.168089152</v>
       </c>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="31"/>
-      <c r="R45" s="31"/>
-      <c r="S45" s="31"/>
-      <c r="T45" s="31"/>
-      <c r="U45" s="31"/>
-      <c r="V45" s="31"/>
-      <c r="W45" s="31"/>
-      <c r="X45" s="31"/>
-      <c r="Y45" s="31"/>
-      <c r="Z45" s="31"/>
-      <c r="AA45" s="31"/>
-      <c r="AB45" s="31"/>
-      <c r="AC45" s="31"/>
-      <c r="AD45" s="31"/>
-      <c r="AE45" s="31"/>
-      <c r="AF45" s="31"/>
-      <c r="AG45" s="31"/>
-      <c r="AH45" s="31"/>
-      <c r="AI45" s="31"/>
-      <c r="AJ45" s="31"/>
     </row>
-    <row r="46" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>13</v>
       </c>
@@ -20406,33 +19097,8 @@
       <c r="J46" s="17">
         <v>16.747367503958401</v>
       </c>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="31"/>
-      <c r="R46" s="31"/>
-      <c r="S46" s="31"/>
-      <c r="T46" s="31"/>
-      <c r="U46" s="31"/>
-      <c r="V46" s="31"/>
-      <c r="W46" s="31"/>
-      <c r="X46" s="31"/>
-      <c r="Y46" s="31"/>
-      <c r="Z46" s="31"/>
-      <c r="AA46" s="31"/>
-      <c r="AB46" s="31"/>
-      <c r="AC46" s="31"/>
-      <c r="AD46" s="31"/>
-      <c r="AE46" s="31"/>
-      <c r="AF46" s="31"/>
-      <c r="AG46" s="31"/>
-      <c r="AH46" s="31"/>
-      <c r="AI46" s="31"/>
-      <c r="AJ46" s="31"/>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>14</v>
       </c>
@@ -20441,15 +19107,15 @@
         <v>0</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" ref="C47:E47" si="15">C45/1000000</f>
+        <f t="shared" ref="C47:E47" si="19">C45/1000000</f>
         <v>0.125509448</v>
       </c>
       <c r="D47" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>15.841906816</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2.3491509719999999</v>
       </c>
       <c r="F47" s="2">
@@ -20457,47 +19123,22 @@
         <v>0</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" ref="G47:I48" si="16">G45/1000000</f>
+        <f t="shared" ref="G47:I48" si="20">G45/1000000</f>
         <v>0</v>
       </c>
       <c r="H47" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.8590514599999999</v>
       </c>
       <c r="I47" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.31858488400000001</v>
       </c>
       <c r="J47" s="16">
         <v>2132.168089152</v>
       </c>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="31"/>
-      <c r="R47" s="31"/>
-      <c r="S47" s="31"/>
-      <c r="T47" s="31"/>
-      <c r="U47" s="31"/>
-      <c r="V47" s="31"/>
-      <c r="W47" s="31"/>
-      <c r="X47" s="31"/>
-      <c r="Y47" s="31"/>
-      <c r="Z47" s="31"/>
-      <c r="AA47" s="31"/>
-      <c r="AB47" s="31"/>
-      <c r="AC47" s="31"/>
-      <c r="AD47" s="31"/>
-      <c r="AE47" s="31"/>
-      <c r="AF47" s="31"/>
-      <c r="AG47" s="31"/>
-      <c r="AH47" s="31"/>
-      <c r="AI47" s="31"/>
-      <c r="AJ47" s="31"/>
     </row>
-    <row r="48" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>15</v>
       </c>
@@ -20506,15 +19147,15 @@
         <v>0</v>
       </c>
       <c r="C48" s="6">
-        <f t="shared" ref="C48:E48" si="17">C46/1000000</f>
+        <f t="shared" ref="C48:E48" si="21">C46/1000000</f>
         <v>4.3369222811853597E-3</v>
       </c>
       <c r="D48" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.44902054044987499</v>
       </c>
       <c r="E48" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>7.5836881994822289E-2</v>
       </c>
       <c r="F48" s="5">
@@ -20522,345 +19163,68 @@
         <v>0</v>
       </c>
       <c r="G48" s="7">
-        <f t="shared" ref="G48" si="18">G46/1000000</f>
+        <f t="shared" ref="G48" si="22">G46/1000000</f>
         <v>0</v>
       </c>
       <c r="H48" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>6.4062357617210297E-2</v>
       </c>
       <c r="I48" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.33774648054025E-2</v>
       </c>
       <c r="J48" s="17">
         <v>16.747367503958401</v>
       </c>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="31"/>
-      <c r="Q48" s="31"/>
-      <c r="R48" s="31"/>
-      <c r="S48" s="31"/>
-      <c r="T48" s="31"/>
-      <c r="U48" s="31"/>
-      <c r="V48" s="31"/>
-      <c r="W48" s="31"/>
-      <c r="X48" s="31"/>
-      <c r="Y48" s="31"/>
-      <c r="Z48" s="31"/>
-      <c r="AA48" s="31"/>
-      <c r="AB48" s="31"/>
-      <c r="AC48" s="31"/>
-      <c r="AD48" s="31"/>
-      <c r="AE48" s="31"/>
-      <c r="AF48" s="31"/>
-      <c r="AG48" s="31"/>
-      <c r="AH48" s="31"/>
-      <c r="AI48" s="31"/>
-      <c r="AJ48" s="31"/>
     </row>
-    <row r="49" spans="12:36" x14ac:dyDescent="0.3">
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="31"/>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="31"/>
-      <c r="R49" s="31"/>
-      <c r="S49" s="31"/>
-      <c r="T49" s="31"/>
-      <c r="U49" s="31"/>
-      <c r="V49" s="31"/>
-      <c r="W49" s="31"/>
-      <c r="X49" s="31"/>
-      <c r="Y49" s="31"/>
-      <c r="Z49" s="31"/>
-      <c r="AA49" s="31"/>
-      <c r="AB49" s="31"/>
-      <c r="AC49" s="31"/>
-      <c r="AD49" s="31"/>
-      <c r="AE49" s="31"/>
-      <c r="AF49" s="31"/>
-      <c r="AG49" s="31"/>
-      <c r="AH49" s="31"/>
-      <c r="AI49" s="31"/>
-      <c r="AJ49" s="31"/>
-    </row>
-    <row r="50" spans="12:36" x14ac:dyDescent="0.3">
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="31"/>
-      <c r="Q50" s="31"/>
-      <c r="R50" s="31"/>
-      <c r="S50" s="31"/>
-      <c r="T50" s="31"/>
-      <c r="U50" s="31"/>
-      <c r="V50" s="31"/>
-      <c r="W50" s="31"/>
-      <c r="X50" s="31"/>
-      <c r="Y50" s="31"/>
-      <c r="Z50" s="31"/>
-      <c r="AA50" s="31"/>
-      <c r="AB50" s="31"/>
-      <c r="AC50" s="31"/>
-      <c r="AD50" s="31"/>
-      <c r="AE50" s="31"/>
-      <c r="AF50" s="31"/>
-      <c r="AG50" s="31"/>
-      <c r="AH50" s="31"/>
-      <c r="AI50" s="31"/>
-      <c r="AJ50" s="31"/>
-    </row>
-    <row r="51" spans="12:36" x14ac:dyDescent="0.3">
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="31"/>
-      <c r="R51" s="31"/>
-      <c r="S51" s="31"/>
-      <c r="T51" s="31"/>
-      <c r="U51" s="31"/>
-      <c r="V51" s="31"/>
-      <c r="W51" s="31"/>
-      <c r="X51" s="31"/>
-      <c r="Y51" s="31"/>
-      <c r="Z51" s="31"/>
-      <c r="AA51" s="31"/>
-      <c r="AB51" s="31"/>
-      <c r="AC51" s="31"/>
-      <c r="AD51" s="31"/>
-      <c r="AE51" s="31"/>
-      <c r="AF51" s="31"/>
-      <c r="AG51" s="31"/>
-      <c r="AH51" s="31"/>
-      <c r="AI51" s="31"/>
-      <c r="AJ51" s="31"/>
-    </row>
-    <row r="52" spans="12:36" x14ac:dyDescent="0.3">
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="31"/>
-      <c r="R52" s="31"/>
-      <c r="S52" s="31"/>
-      <c r="T52" s="31"/>
-      <c r="U52" s="31"/>
-      <c r="V52" s="31"/>
-      <c r="W52" s="31"/>
-      <c r="X52" s="31"/>
-      <c r="Y52" s="31"/>
-      <c r="Z52" s="31"/>
-      <c r="AA52" s="31"/>
-      <c r="AB52" s="31"/>
-      <c r="AC52" s="31"/>
-      <c r="AD52" s="31"/>
-      <c r="AE52" s="31"/>
-      <c r="AF52" s="31"/>
-      <c r="AG52" s="31"/>
-      <c r="AH52" s="31"/>
-      <c r="AI52" s="31"/>
-      <c r="AJ52" s="31"/>
-    </row>
-    <row r="53" spans="12:36" x14ac:dyDescent="0.3">
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="31"/>
-      <c r="Q53" s="31"/>
-      <c r="R53" s="31"/>
-      <c r="S53" s="31"/>
-      <c r="T53" s="31"/>
-      <c r="U53" s="31"/>
-      <c r="V53" s="31"/>
-      <c r="W53" s="31"/>
-      <c r="X53" s="31"/>
-      <c r="Y53" s="31"/>
-      <c r="Z53" s="31"/>
-      <c r="AA53" s="31"/>
-      <c r="AB53" s="31"/>
-      <c r="AC53" s="31"/>
-      <c r="AD53" s="31"/>
-      <c r="AE53" s="31"/>
-      <c r="AF53" s="31"/>
-      <c r="AG53" s="31"/>
-      <c r="AH53" s="31"/>
-      <c r="AI53" s="31"/>
-      <c r="AJ53" s="31"/>
-    </row>
-    <row r="54" spans="12:36" x14ac:dyDescent="0.3">
-      <c r="L54" s="31"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="31"/>
-      <c r="P54" s="31"/>
-      <c r="Q54" s="31"/>
-      <c r="R54" s="31"/>
-      <c r="S54" s="31"/>
-      <c r="T54" s="31"/>
-      <c r="U54" s="31"/>
-      <c r="V54" s="31"/>
-      <c r="W54" s="31"/>
-      <c r="X54" s="31"/>
-      <c r="Y54" s="31"/>
-      <c r="Z54" s="31"/>
-      <c r="AA54" s="31"/>
-      <c r="AB54" s="31"/>
-      <c r="AC54" s="31"/>
-      <c r="AD54" s="31"/>
-      <c r="AE54" s="31"/>
-      <c r="AF54" s="31"/>
-      <c r="AG54" s="31"/>
-      <c r="AH54" s="31"/>
-      <c r="AI54" s="31"/>
-      <c r="AJ54" s="31"/>
-    </row>
-    <row r="55" spans="12:36" x14ac:dyDescent="0.3">
-      <c r="L55" s="31"/>
-      <c r="M55" s="31"/>
-      <c r="N55" s="31"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="31"/>
-      <c r="Q55" s="31"/>
-      <c r="R55" s="31"/>
-      <c r="S55" s="31"/>
-      <c r="T55" s="31"/>
-      <c r="U55" s="31"/>
-      <c r="V55" s="31"/>
-      <c r="W55" s="31"/>
-      <c r="X55" s="31"/>
-      <c r="Y55" s="31"/>
-      <c r="Z55" s="31"/>
-      <c r="AA55" s="31"/>
-      <c r="AB55" s="31"/>
-      <c r="AC55" s="31"/>
-      <c r="AD55" s="31"/>
-      <c r="AE55" s="31"/>
-      <c r="AF55" s="31"/>
-      <c r="AG55" s="31"/>
-      <c r="AH55" s="31"/>
-      <c r="AI55" s="31"/>
-      <c r="AJ55" s="31"/>
-    </row>
-    <row r="56" spans="12:36" x14ac:dyDescent="0.3">
-      <c r="L56" s="31"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="31"/>
-      <c r="R56" s="31"/>
-      <c r="S56" s="31"/>
-      <c r="T56" s="31"/>
-      <c r="U56" s="31"/>
-      <c r="V56" s="31"/>
-      <c r="W56" s="31"/>
-      <c r="X56" s="31"/>
-      <c r="Y56" s="31"/>
-      <c r="Z56" s="31"/>
-      <c r="AA56" s="31"/>
-      <c r="AB56" s="31"/>
-      <c r="AC56" s="31"/>
-      <c r="AD56" s="31"/>
-      <c r="AE56" s="31"/>
-      <c r="AF56" s="31"/>
-      <c r="AG56" s="31"/>
-      <c r="AH56" s="31"/>
-      <c r="AI56" s="31"/>
-      <c r="AJ56" s="31"/>
-    </row>
-    <row r="57" spans="12:36" x14ac:dyDescent="0.3">
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="31"/>
-      <c r="R57" s="31"/>
-      <c r="S57" s="31"/>
-      <c r="T57" s="31"/>
-      <c r="U57" s="31"/>
-      <c r="V57" s="31"/>
-      <c r="W57" s="31"/>
-      <c r="X57" s="31"/>
-      <c r="Y57" s="31"/>
-      <c r="Z57" s="31"/>
-      <c r="AA57" s="31"/>
-      <c r="AB57" s="31"/>
-      <c r="AC57" s="31"/>
-      <c r="AD57" s="31"/>
-      <c r="AE57" s="31"/>
-      <c r="AF57" s="31"/>
-      <c r="AG57" s="31"/>
-      <c r="AH57" s="31"/>
-      <c r="AI57" s="31"/>
-      <c r="AJ57" s="31"/>
-    </row>
-    <row r="58" spans="12:36" x14ac:dyDescent="0.3">
-      <c r="L58" s="31"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="31"/>
-      <c r="R58" s="31"/>
-      <c r="S58" s="31"/>
-      <c r="T58" s="31"/>
-      <c r="U58" s="31"/>
-      <c r="V58" s="31"/>
-      <c r="W58" s="31"/>
-      <c r="X58" s="31"/>
-      <c r="Y58" s="31"/>
-      <c r="Z58" s="31"/>
-      <c r="AA58" s="31"/>
-      <c r="AB58" s="31"/>
-      <c r="AC58" s="31"/>
-      <c r="AD58" s="31"/>
-      <c r="AE58" s="31"/>
-      <c r="AF58" s="31"/>
-      <c r="AG58" s="31"/>
-      <c r="AH58" s="31"/>
-      <c r="AI58" s="31"/>
-      <c r="AJ58" s="31"/>
-    </row>
-    <row r="59" spans="12:36" x14ac:dyDescent="0.3">
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="31"/>
-      <c r="R59" s="31"/>
-      <c r="S59" s="31"/>
-      <c r="T59" s="31"/>
-      <c r="U59" s="31"/>
-      <c r="V59" s="31"/>
-      <c r="W59" s="31"/>
-      <c r="X59" s="31"/>
-      <c r="Y59" s="31"/>
-      <c r="Z59" s="31"/>
-      <c r="AA59" s="31"/>
-      <c r="AB59" s="31"/>
-      <c r="AC59" s="31"/>
-      <c r="AD59" s="31"/>
-      <c r="AE59" s="31"/>
-      <c r="AF59" s="31"/>
-      <c r="AG59" s="31"/>
-      <c r="AH59" s="31"/>
-      <c r="AI59" s="31"/>
-      <c r="AJ59" s="31"/>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="31">
+        <f>B47/B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="31">
+        <f t="shared" ref="C49:J49" si="23">C47/C$7</f>
+        <v>5.1553041909837685</v>
+      </c>
+      <c r="D49" s="31">
+        <f t="shared" si="23"/>
+        <v>0.50988780912132836</v>
+      </c>
+      <c r="E49" s="31">
+        <f t="shared" si="23"/>
+        <v>1.7045182229905054</v>
+      </c>
+      <c r="F49" s="31">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="31">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="31">
+        <f t="shared" si="23"/>
+        <v>1.0480995410955254</v>
+      </c>
+      <c r="I49" s="31">
+        <f t="shared" si="23"/>
+        <v>1.1792195809189372</v>
+      </c>
+      <c r="J49" s="31">
+        <f t="shared" si="23"/>
+        <v>0.87499260002405865</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H23:I23"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="A1:B2"/>
@@ -20877,10 +19241,6 @@
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="A11:B12"/>
     <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H23:I23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20893,10 +19253,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:R48"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z53" sqref="Z53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20913,53 +19273,39 @@
     <col min="10" max="10" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+    <row r="2" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
     </row>
-    <row r="3" spans="1:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="22" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="25"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="1"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
     </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
@@ -20987,15 +19333,8 @@
       <c r="J4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -21026,15 +19365,8 @@
       <c r="J5" s="4">
         <v>253.33341478400001</v>
       </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
     </row>
-    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -21065,15 +19397,8 @@
       <c r="J6" s="7">
         <v>6.9096140423042005</v>
       </c>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -21112,15 +19437,8 @@
       <c r="J7" s="4">
         <v>253.33341478400001</v>
       </c>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
     </row>
-    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -21159,86 +19477,82 @@
       <c r="J8" s="7">
         <v>6.9096140423042005</v>
       </c>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="31">
+        <f>B7/B$7</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="31">
+        <f t="shared" ref="C9:J9" si="1">C7/C$7</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-    </row>
-    <row r="11" spans="1:18" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
     </row>
-    <row r="12" spans="1:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
+    <row r="12" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
     </row>
-    <row r="13" spans="1:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="22" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24" t="s">
+      <c r="G13" s="29"/>
+      <c r="H13" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="25"/>
+      <c r="I13" s="23"/>
       <c r="J13" s="1"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
     </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
         <v>4</v>
       </c>
@@ -21266,15 +19580,8 @@
       <c r="J14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -21303,15 +19610,8 @@
       <c r="J15" s="4">
         <v>211.98118355199998</v>
       </c>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
     </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -21340,15 +19640,8 @@
       <c r="J16" s="7">
         <v>5.4088619639905193</v>
       </c>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -21357,15 +19650,15 @@
         <v>0</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" ref="C17:E17" si="1">C15/1000000</f>
+        <f t="shared" ref="C17:E17" si="2">C15/1000000</f>
         <v>1.5124884E-2</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>165.62708384000001</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11473287300000001</v>
       </c>
       <c r="F17" s="2">
@@ -21373,29 +19666,22 @@
         <v>3.9059419999999999E-3</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" ref="G17:I17" si="2">G15/1000000</f>
+        <f t="shared" ref="G17:I17" si="3">G15/1000000</f>
         <v>2.6440328E-3</v>
       </c>
       <c r="H17" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2612535999999999E-2</v>
       </c>
       <c r="I17" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3996000000000001E-3</v>
       </c>
       <c r="J17" s="16">
         <v>211.98118355199998</v>
       </c>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
     </row>
-    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -21404,15 +19690,15 @@
         <v>0</v>
       </c>
       <c r="C18" s="6">
-        <f t="shared" ref="C18:E18" si="3">C16/1000000</f>
+        <f t="shared" ref="C18:E18" si="4">C16/1000000</f>
         <v>9.5313778743036696E-4</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9908686184164399</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.93164984693894E-2</v>
       </c>
       <c r="F18" s="5">
@@ -21420,100 +19706,96 @@
         <v>3.9046015445937701E-4</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" ref="G18:I18" si="4">G16/1000000</f>
+        <f t="shared" ref="G18:I18" si="5">G16/1000000</f>
         <v>2.17804795406262E-4</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5430326870094198E-2</v>
       </c>
       <c r="I18" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.2080252529039102E-4</v>
       </c>
       <c r="J18" s="17">
         <v>5.4088619639905193</v>
       </c>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="31">
+        <f>B17/B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="31">
+        <f t="shared" ref="C19:J19" si="6">C17/C$7</f>
+        <v>0.83509688744165878</v>
+      </c>
+      <c r="D19" s="31">
+        <f t="shared" si="6"/>
+        <v>5.8230825926744156</v>
+      </c>
+      <c r="E19" s="31">
+        <f t="shared" si="6"/>
+        <v>1.2225719447937715</v>
+      </c>
+      <c r="F19" s="31">
+        <f t="shared" si="6"/>
+        <v>0.90978421535885767</v>
+      </c>
+      <c r="G19" s="31">
+        <f t="shared" si="6"/>
+        <v>0.8871997852493122</v>
+      </c>
+      <c r="H19" s="31">
+        <f t="shared" si="6"/>
+        <v>0.96442411955095375</v>
+      </c>
+      <c r="I19" s="31">
+        <f t="shared" si="6"/>
+        <v>0.96149267399267391</v>
+      </c>
+      <c r="J19" s="31">
+        <f t="shared" si="6"/>
+        <v>0.83676756077654324</v>
+      </c>
     </row>
-    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-    </row>
-    <row r="21" spans="1:18" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="27"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
     </row>
-    <row r="22" spans="1:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
+    <row r="22" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
     </row>
-    <row r="23" spans="1:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="24" t="s">
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="24" t="s">
+      <c r="G23" s="23"/>
+      <c r="H23" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="25"/>
+      <c r="I23" s="23"/>
       <c r="J23" s="1"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
     </row>
-    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="8" t="s">
         <v>4</v>
       </c>
@@ -21541,15 +19823,8 @@
       <c r="J24" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
@@ -21580,15 +19855,8 @@
       <c r="J25" s="16">
         <v>260.00957734400004</v>
       </c>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
     </row>
-    <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>13</v>
       </c>
@@ -21619,15 +19887,8 @@
       <c r="J26" s="17">
         <v>4.7424267715557598</v>
       </c>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -21636,15 +19897,15 @@
         <v>8.9111919999999983E-3</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" ref="C27:E28" si="5">C25/1000000</f>
+        <f t="shared" ref="C27:E28" si="7">C25/1000000</f>
         <v>2.6085572000000001E-2</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.11290716000000001</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.103659818</v>
       </c>
       <c r="F27" s="2">
@@ -21652,29 +19913,22 @@
         <v>4.2959539999999994E-3</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" ref="G27:I28" si="6">G25/1000000</f>
+        <f t="shared" ref="G27:I28" si="8">G25/1000000</f>
         <v>2.9983539999999999E-3</v>
       </c>
       <c r="H27" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.3740063999999998E-2</v>
       </c>
       <c r="I27" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.4557839999999992E-3</v>
       </c>
       <c r="J27" s="16">
         <v>260.00957734400004</v>
       </c>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
     </row>
-    <row r="28" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>15</v>
       </c>
@@ -21683,15 +19937,15 @@
         <v>1.92864623602761E-3</v>
       </c>
       <c r="C28" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.84020645592195E-3</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.0734113682206795E-3</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.34980647573834E-2</v>
       </c>
       <c r="F28" s="5">
@@ -21699,100 +19953,96 @@
         <v>2.8673980420344298E-4</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.0814660868102199E-4</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.2857797843074601E-3</v>
       </c>
       <c r="I28" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.3825110004485206E-4</v>
       </c>
       <c r="J28" s="17">
         <v>4.7424267715557598</v>
       </c>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="31">
+        <f>B27/B$7</f>
+        <v>1.3489497915689652</v>
+      </c>
+      <c r="C29" s="31">
+        <f t="shared" ref="C29:J29" si="9">C27/C$7</f>
+        <v>1.4402741855299708</v>
+      </c>
+      <c r="D29" s="31">
+        <f t="shared" si="9"/>
+        <v>3.9695664666742287E-3</v>
+      </c>
+      <c r="E29" s="31">
+        <f t="shared" si="9"/>
+        <v>1.1045795505288916</v>
+      </c>
+      <c r="F29" s="31">
+        <f t="shared" si="9"/>
+        <v>1.0006270290515695</v>
+      </c>
+      <c r="G29" s="31">
+        <f t="shared" si="9"/>
+        <v>1.006091537480706</v>
+      </c>
+      <c r="H29" s="31">
+        <f t="shared" si="9"/>
+        <v>1.0125131617826189</v>
+      </c>
+      <c r="I29" s="31">
+        <f t="shared" si="9"/>
+        <v>0.96792399267399254</v>
+      </c>
+      <c r="J29" s="31">
+        <f t="shared" si="9"/>
+        <v>1.0263532647901672</v>
+      </c>
     </row>
-    <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-    </row>
-    <row r="31" spans="1:18" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="s">
+    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="A31" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="27"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
     </row>
-    <row r="32" spans="1:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
+    <row r="32" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="26"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
     </row>
-    <row r="33" spans="1:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="22" t="s">
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="28" t="s">
         <v>2</v>
       </c>
       <c r="G33" s="30"/>
-      <c r="H33" s="24" t="s">
+      <c r="H33" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="25"/>
+      <c r="I33" s="23"/>
       <c r="J33" s="1"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
     </row>
-    <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="8" t="s">
         <v>4</v>
       </c>
@@ -21820,15 +20070,8 @@
       <c r="J34" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>12</v>
       </c>
@@ -21853,15 +20096,8 @@
       <c r="J35" s="16">
         <v>252.699869632</v>
       </c>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
     </row>
-    <row r="36" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>13</v>
       </c>
@@ -21886,15 +20122,8 @@
       <c r="J36" s="17">
         <v>4.0179009367713201</v>
       </c>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
@@ -21903,15 +20132,15 @@
         <v>0</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" ref="C37:E38" si="7">C35/1000000</f>
+        <f t="shared" ref="C37:E38" si="10">C35/1000000</f>
         <v>1.9778776000000001E-2</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2288661759999999</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.16873352</v>
       </c>
       <c r="F37" s="2">
@@ -21919,29 +20148,22 @@
         <v>0</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" ref="G37:I38" si="8">G35/1000000</f>
+        <f t="shared" ref="G37:I38" si="11">G35/1000000</f>
         <v>0</v>
       </c>
       <c r="H37" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.4831784E-2</v>
       </c>
       <c r="I37" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0660008E-2</v>
       </c>
       <c r="J37" s="16">
         <v>252.699869632</v>
       </c>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
     </row>
-    <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>15</v>
       </c>
@@ -21950,15 +20172,15 @@
         <v>0</v>
       </c>
       <c r="C38" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.9761681845130889E-4</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.6303450028571299E-2</v>
       </c>
       <c r="E38" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.9658744873790201E-2</v>
       </c>
       <c r="F38" s="5">
@@ -21966,100 +20188,96 @@
         <v>0</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.9173172816111602E-3</v>
       </c>
       <c r="I38" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.3692955226517204E-4</v>
       </c>
       <c r="J38" s="17">
         <v>4.0179009367713201</v>
       </c>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="31">
+        <f>B37/B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="31">
+        <f t="shared" ref="C39:J39" si="12">C37/C$7</f>
+        <v>1.0920542779042657</v>
+      </c>
+      <c r="D39" s="31">
+        <f t="shared" si="12"/>
+        <v>4.3204221630229571E-2</v>
+      </c>
+      <c r="E39" s="31">
+        <f t="shared" si="12"/>
+        <v>1.797992696463713</v>
+      </c>
+      <c r="F39" s="31">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="31">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="31">
+        <f t="shared" si="12"/>
+        <v>1.9120745153086118</v>
+      </c>
+      <c r="I39" s="31">
+        <f t="shared" si="12"/>
+        <v>1.2202390109890109</v>
+      </c>
+      <c r="J39" s="31">
+        <f t="shared" si="12"/>
+        <v>0.99749916467774224</v>
+      </c>
     </row>
-    <row r="40" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="31"/>
-    </row>
-    <row r="41" spans="1:18" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
+    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="A41" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="27"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="31"/>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="31"/>
     </row>
-    <row r="42" spans="1:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="28"/>
-      <c r="B42" s="29"/>
+    <row r="42" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="26"/>
+      <c r="B42" s="27"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="31"/>
-      <c r="Q42" s="31"/>
-      <c r="R42" s="31"/>
     </row>
-    <row r="43" spans="1:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="22" t="s">
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="28" t="s">
         <v>2</v>
       </c>
       <c r="G43" s="30"/>
-      <c r="H43" s="24" t="s">
+      <c r="H43" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="25"/>
+      <c r="I43" s="23"/>
       <c r="J43" s="1"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="31"/>
     </row>
-    <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="8" t="s">
         <v>4</v>
       </c>
@@ -22088,7 +20306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
@@ -22114,7 +20332,7 @@
         <v>248.520473856</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>13</v>
       </c>
@@ -22140,7 +20358,7 @@
         <v>8.5713963520432301</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>14</v>
       </c>
@@ -22149,15 +20367,15 @@
         <v>0</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" ref="C47:E48" si="9">C45/1000000</f>
+        <f t="shared" ref="C47:E48" si="13">C45/1000000</f>
         <v>2.4229596000000003E-2</v>
       </c>
       <c r="D47" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.42888729599999997</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.27862760399999997</v>
       </c>
       <c r="F47" s="2">
@@ -22165,22 +20383,22 @@
         <v>0</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" ref="G47:I48" si="10">G45/1000000</f>
+        <f t="shared" ref="G47:I48" si="14">G45/1000000</f>
         <v>0</v>
       </c>
       <c r="H47" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4.0894175999999997E-2</v>
       </c>
       <c r="I47" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.2488928E-2</v>
       </c>
       <c r="J47" s="16">
         <v>248.520473856</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>15</v>
       </c>
@@ -22189,15 +20407,15 @@
         <v>0</v>
       </c>
       <c r="C48" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.6415035841622801E-3</v>
       </c>
       <c r="D48" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>7.6692835734313E-2</v>
       </c>
       <c r="E48" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6.3147857056664106E-2</v>
       </c>
       <c r="F48" s="5">
@@ -22205,32 +20423,64 @@
         <v>0</v>
       </c>
       <c r="G48" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H48" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>3.8976036418962097E-3</v>
       </c>
       <c r="I48" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.27366295913909E-3</v>
       </c>
       <c r="J48" s="17">
         <v>8.5713963520432301</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="31">
+        <f>B47/B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="31">
+        <f t="shared" ref="C49:J49" si="15">C47/C$7</f>
+        <v>1.3377993645153818</v>
+      </c>
+      <c r="D49" s="31">
+        <f t="shared" si="15"/>
+        <v>1.507873042049932E-2</v>
+      </c>
+      <c r="E49" s="31">
+        <f t="shared" si="15"/>
+        <v>2.9690034145271404</v>
+      </c>
+      <c r="F49" s="31">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="31">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="31">
+        <f t="shared" si="15"/>
+        <v>1.7441356282887397</v>
+      </c>
+      <c r="I49" s="31">
+        <f t="shared" si="15"/>
+        <v>1.4295934065934064</v>
+      </c>
+      <c r="J49" s="31">
+        <f t="shared" si="15"/>
+        <v>0.98100155507672104</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="H43:I43"/>
@@ -22242,6 +20492,15 @@
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="A41:B42"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22271,38 +20530,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="22" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="28" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="30"/>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
       <c r="M3" s="30"/>
       <c r="N3" s="1"/>
     </row>
@@ -22499,38 +20758,38 @@
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="22" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="28" t="s">
         <v>2</v>
       </c>
       <c r="G13" s="30"/>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
       <c r="M13" s="30"/>
       <c r="N13" s="1"/>
     </row>
@@ -22727,38 +20986,38 @@
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="27"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="22" t="s">
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="28" t="s">
         <v>2</v>
       </c>
       <c r="G23" s="30"/>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
       <c r="M23" s="30"/>
       <c r="N23" s="1"/>
     </row>
@@ -22955,38 +21214,38 @@
     </row>
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="27"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="22" t="s">
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="28" t="s">
         <v>2</v>
       </c>
       <c r="G33" s="30"/>
-      <c r="H33" s="22" t="s">
+      <c r="H33" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
       <c r="M33" s="30"/>
       <c r="N33" s="1"/>
     </row>
@@ -23183,6 +21442,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:G33"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="H13:M13"/>
@@ -23191,14 +21458,6 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="A11:B12"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:G33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bench-in-loop/Graph_Traversal/Graph_Traversal.xlsx
+++ b/Bench-in-loop/Graph_Traversal/Graph_Traversal.xlsx
@@ -8,18 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ikerlan-my.sharepoint.com/personal/mrodriguez_ikerlan_es/Documents/Documentos/GitHub/MARS-data/Bench-in-loop/Graph_Traversal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{5403B381-1C17-4381-B9E6-DD0D7DEE3787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55424CB0-BCCC-4951-8D83-5390ECB4963F}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{5403B381-1C17-4381-B9E6-DD0D7DEE3787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97FA0347-06A1-49F4-8FA3-9EC4EC86518A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="748" activeTab="1" xr2:uid="{3BB41F9D-0BB3-4FC4-952D-A48197C80458}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="748" xr2:uid="{3BB41F9D-0BB3-4FC4-952D-A48197C80458}"/>
   </bookViews>
   <sheets>
     <sheet name="BFS_1MW" sheetId="12" r:id="rId1"/>
     <sheet name="BFS_4096" sheetId="16" r:id="rId2"/>
     <sheet name="HybridSort" sheetId="15" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -374,6 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -401,7 +399,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,7 +433,7 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
-      <c:rotX val="40"/>
+      <c:rotX val="60"/>
       <c:rotY val="30"/>
       <c:rAngAx val="0"/>
       <c:perspective val="0"/>
@@ -480,9 +477,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7206391626089008E-2"/>
+          <c:x val="0.10797410570447548"/>
           <c:y val="2.2770647303387497E-2"/>
-          <c:w val="0.74041050325388946"/>
+          <c:w val="0.66338840596883542"/>
           <c:h val="0.81955410382548477"/>
         </c:manualLayout>
       </c:layout>
@@ -633,6 +630,27 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.1662138409494857E-3"/>
+                  <c:y val="-8.145189308882427E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-F0D2-4909-96E5-BDD225E8F1A0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
@@ -3288,9 +3306,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7206391626089008E-2"/>
+          <c:x val="0.10988377676100096"/>
           <c:y val="2.2770647303387497E-2"/>
-          <c:w val="0.74041050325388946"/>
+          <c:w val="0.64403872225046599"/>
           <c:h val="0.81955410382548477"/>
         </c:manualLayout>
       </c:layout>
@@ -4148,9 +4166,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7206391626089008E-2"/>
+          <c:x val="0.138579478054567"/>
           <c:y val="2.2770647303387497E-2"/>
-          <c:w val="0.74041050325388946"/>
+          <c:w val="0.6325369993786365"/>
           <c:h val="0.81955410382548477"/>
         </c:manualLayout>
       </c:layout>
@@ -4770,8 +4788,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="5.8329390780581927E-2"/>
-              <c:y val="0.33472251527845776"/>
+              <c:x val="3.680760323109078E-2"/>
+              <c:y val="0.39273351112610294"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5630,8 +5648,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="5.1257394268668356E-2"/>
-              <c:y val="0.3326649746672537"/>
+              <c:x val="2.6148675365757219E-2"/>
+              <c:y val="0.3348991978045176"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -15879,15 +15897,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>58450</xdr:colOff>
+      <xdr:colOff>54640</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>260551</xdr:rowOff>
+      <xdr:rowOff>254836</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>121227</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>475960</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>138545</xdr:rowOff>
+      <xdr:rowOff>135619</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15922,10 +15940,10 @@
       <xdr:rowOff>37320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>86590</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>86590</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>225626</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>75993</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15965,10 +15983,10 @@
       <xdr:rowOff>230850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>275186</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>84685</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>150116</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>169424</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16000,13 +16018,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>321424</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>65463</xdr:rowOff>
+      <xdr:rowOff>59748</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>51955</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>128988</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>98421</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16497,55 +16515,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="gaussian3"/>
-      <sheetName val="gaussian1024"/>
-      <sheetName val="LUD64"/>
-      <sheetName val="LUD2048"/>
-      <sheetName val="Kmeans100"/>
-      <sheetName val="Kmeans819200"/>
-      <sheetName val="Streamcluster"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="7">
-          <cell r="F7">
-            <v>0.49685522645290497</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>0.52853861533333302</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="F27">
-            <v>0.59037115000000007</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="F37">
-            <v>0.55035044</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -17992,8 +17961,8 @@
   </sheetPr>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:J49"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AA43" sqref="AA43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18011,35 +17980,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="28" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="22" t="s">
+      <c r="G3" s="30"/>
+      <c r="H3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="23"/>
+      <c r="I3" s="24"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18216,78 +18185,78 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="22">
         <f>B7/B$7</f>
         <v>1</v>
       </c>
-      <c r="C9" s="31">
-        <f t="shared" ref="C9:K9" si="3">C7/C$7</f>
+      <c r="C9" s="22">
+        <f t="shared" ref="C9:J9" si="3">C7/C$7</f>
         <v>1</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="22">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="22">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="22">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="22">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="22">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="22">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="22">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K9" s="31"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="28" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="22" t="s">
+      <c r="G13" s="30"/>
+      <c r="H13" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="23"/>
+      <c r="I13" s="24"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18462,77 +18431,77 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="22">
         <f>B17/B$7</f>
         <v>0</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="22">
         <f t="shared" ref="C19:J19" si="8">C17/C$7</f>
         <v>0.96042306786761289</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="22">
         <f t="shared" si="8"/>
         <v>5.5972389635584197</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="22">
         <f t="shared" si="8"/>
         <v>0.95036395604814561</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="22">
         <f t="shared" si="8"/>
         <v>0.69518752834994957</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="22">
         <f t="shared" si="8"/>
         <v>0.70760069526534131</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="22">
         <f t="shared" si="8"/>
         <v>0.96107971959780125</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="22">
         <f t="shared" si="8"/>
         <v>0.91766417645574561</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="22">
         <f t="shared" si="8"/>
         <v>0.82337066201561782</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="25"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="22" t="s">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="22" t="s">
+      <c r="G23" s="24"/>
+      <c r="H23" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="23"/>
+      <c r="I23" s="24"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18709,77 +18678,77 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="31">
+      <c r="B29" s="22">
         <f>B27/B$7</f>
         <v>1.0023173488177441</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="22">
         <f t="shared" ref="C29:J29" si="13">C27/C$7</f>
         <v>1.3240591394978627</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="22">
         <f t="shared" si="13"/>
         <v>6.4123878614190929E-2</v>
       </c>
-      <c r="E29" s="31">
+      <c r="E29" s="22">
         <f t="shared" si="13"/>
         <v>1.0059934903575178</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F29" s="22">
         <f t="shared" si="13"/>
         <v>1.0173961388501587</v>
       </c>
-      <c r="G29" s="31">
+      <c r="G29" s="22">
         <f t="shared" si="13"/>
         <v>1.0340388936484901</v>
       </c>
-      <c r="H29" s="31">
+      <c r="H29" s="22">
         <f t="shared" si="13"/>
         <v>1.0000119555587066</v>
       </c>
-      <c r="I29" s="31">
+      <c r="I29" s="22">
         <f t="shared" si="13"/>
         <v>0.99915841331105215</v>
       </c>
-      <c r="J29" s="31">
+      <c r="J29" s="22">
         <f t="shared" si="13"/>
         <v>0.97985611573632536</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="25"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="26"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="28" t="s">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="22" t="s">
+      <c r="G33" s="31"/>
+      <c r="H33" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="23"/>
+      <c r="I33" s="24"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18944,77 +18913,77 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="31">
+      <c r="B39" s="22">
         <f>B37/B$7</f>
         <v>0</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="22">
         <f t="shared" ref="C39:J39" si="18">C37/C$7</f>
         <v>1.0268503670189781</v>
       </c>
-      <c r="D39" s="31">
+      <c r="D39" s="22">
         <f t="shared" si="18"/>
         <v>0.50040460517256447</v>
       </c>
-      <c r="E39" s="31">
+      <c r="E39" s="22">
         <f t="shared" si="18"/>
         <v>1.0270146525305615</v>
       </c>
-      <c r="F39" s="31">
+      <c r="F39" s="22">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G39" s="31">
+      <c r="G39" s="22">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="H39" s="31">
+      <c r="H39" s="22">
         <f t="shared" si="18"/>
         <v>1.1233597721146931</v>
       </c>
-      <c r="I39" s="31">
+      <c r="I39" s="22">
         <f t="shared" si="18"/>
         <v>1.272722273322241</v>
       </c>
-      <c r="J39" s="31">
+      <c r="J39" s="22">
         <f t="shared" si="18"/>
         <v>0.86495985883069426</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="25"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="26"/>
-      <c r="B42" s="27"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="28" t="s">
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G43" s="30"/>
-      <c r="H43" s="22" t="s">
+      <c r="G43" s="31"/>
+      <c r="H43" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="23"/>
+      <c r="I43" s="24"/>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19179,49 +19148,48 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="31">
+      <c r="B49" s="22">
         <f>B47/B$7</f>
         <v>0</v>
       </c>
-      <c r="C49" s="31">
+      <c r="C49" s="22">
         <f t="shared" ref="C49:J49" si="23">C47/C$7</f>
         <v>5.1553041909837685</v>
       </c>
-      <c r="D49" s="31">
+      <c r="D49" s="22">
         <f t="shared" si="23"/>
         <v>0.50988780912132836</v>
       </c>
-      <c r="E49" s="31">
+      <c r="E49" s="22">
         <f t="shared" si="23"/>
         <v>1.7045182229905054</v>
       </c>
-      <c r="F49" s="31">
+      <c r="F49" s="22">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G49" s="31">
+      <c r="G49" s="22">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="H49" s="31">
+      <c r="H49" s="22">
         <f t="shared" si="23"/>
         <v>1.0480995410955254</v>
       </c>
-      <c r="I49" s="31">
+      <c r="I49" s="22">
         <f t="shared" si="23"/>
         <v>1.1792195809189372</v>
       </c>
-      <c r="J49" s="31">
+      <c r="J49" s="22">
         <f t="shared" si="23"/>
         <v>0.87499260002405865</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F13:G13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H23:I23"/>
@@ -19241,6 +19209,7 @@
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="A11:B12"/>
     <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19255,8 +19224,8 @@
   </sheetPr>
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z53" sqref="Z53"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Y44" sqref="Y44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19274,35 +19243,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="28" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="22" t="s">
+      <c r="G3" s="30"/>
+      <c r="H3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="23"/>
+      <c r="I3" s="24"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19479,77 +19448,77 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="22">
         <f>B7/B$7</f>
         <v>1</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="22">
         <f t="shared" ref="C9:J9" si="1">C7/C$7</f>
         <v>1</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="28" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="22" t="s">
+      <c r="G13" s="30"/>
+      <c r="H13" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="23"/>
+      <c r="I13" s="24"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19722,77 +19691,77 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="22">
         <f>B17/B$7</f>
         <v>0</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="22">
         <f t="shared" ref="C19:J19" si="6">C17/C$7</f>
         <v>0.83509688744165878</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="22">
         <f t="shared" si="6"/>
         <v>5.8230825926744156</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="22">
         <f t="shared" si="6"/>
         <v>1.2225719447937715</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="22">
         <f t="shared" si="6"/>
         <v>0.90978421535885767</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="22">
         <f t="shared" si="6"/>
         <v>0.8871997852493122</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="22">
         <f t="shared" si="6"/>
         <v>0.96442411955095375</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="22">
         <f t="shared" si="6"/>
         <v>0.96149267399267391</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="22">
         <f t="shared" si="6"/>
         <v>0.83676756077654324</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="25"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="22" t="s">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="22" t="s">
+      <c r="G23" s="24"/>
+      <c r="H23" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="23"/>
+      <c r="I23" s="24"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19969,77 +19938,77 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="31">
+      <c r="B29" s="22">
         <f>B27/B$7</f>
         <v>1.3489497915689652</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="22">
         <f t="shared" ref="C29:J29" si="9">C27/C$7</f>
         <v>1.4402741855299708</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="22">
         <f t="shared" si="9"/>
         <v>3.9695664666742287E-3</v>
       </c>
-      <c r="E29" s="31">
+      <c r="E29" s="22">
         <f t="shared" si="9"/>
         <v>1.1045795505288916</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F29" s="22">
         <f t="shared" si="9"/>
         <v>1.0006270290515695</v>
       </c>
-      <c r="G29" s="31">
+      <c r="G29" s="22">
         <f t="shared" si="9"/>
         <v>1.006091537480706</v>
       </c>
-      <c r="H29" s="31">
+      <c r="H29" s="22">
         <f t="shared" si="9"/>
         <v>1.0125131617826189</v>
       </c>
-      <c r="I29" s="31">
+      <c r="I29" s="22">
         <f t="shared" si="9"/>
         <v>0.96792399267399254</v>
       </c>
-      <c r="J29" s="31">
+      <c r="J29" s="22">
         <f t="shared" si="9"/>
         <v>1.0263532647901672</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="25"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="26"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="28" t="s">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="22" t="s">
+      <c r="G33" s="31"/>
+      <c r="H33" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="23"/>
+      <c r="I33" s="24"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -20204,77 +20173,77 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="31">
+      <c r="B39" s="22">
         <f>B37/B$7</f>
         <v>0</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="22">
         <f t="shared" ref="C39:J39" si="12">C37/C$7</f>
         <v>1.0920542779042657</v>
       </c>
-      <c r="D39" s="31">
+      <c r="D39" s="22">
         <f t="shared" si="12"/>
         <v>4.3204221630229571E-2</v>
       </c>
-      <c r="E39" s="31">
+      <c r="E39" s="22">
         <f t="shared" si="12"/>
         <v>1.797992696463713</v>
       </c>
-      <c r="F39" s="31">
+      <c r="F39" s="22">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G39" s="31">
+      <c r="G39" s="22">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H39" s="31">
+      <c r="H39" s="22">
         <f t="shared" si="12"/>
         <v>1.9120745153086118</v>
       </c>
-      <c r="I39" s="31">
+      <c r="I39" s="22">
         <f t="shared" si="12"/>
         <v>1.2202390109890109</v>
       </c>
-      <c r="J39" s="31">
+      <c r="J39" s="22">
         <f t="shared" si="12"/>
         <v>0.99749916467774224</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="25"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="26"/>
-      <c r="B42" s="27"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="28" t="s">
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G43" s="30"/>
-      <c r="H43" s="22" t="s">
+      <c r="G43" s="31"/>
+      <c r="H43" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="23"/>
+      <c r="I43" s="24"/>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -20439,42 +20408,42 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="31">
+      <c r="B49" s="22">
         <f>B47/B$7</f>
         <v>0</v>
       </c>
-      <c r="C49" s="31">
+      <c r="C49" s="22">
         <f t="shared" ref="C49:J49" si="15">C47/C$7</f>
         <v>1.3377993645153818</v>
       </c>
-      <c r="D49" s="31">
+      <c r="D49" s="22">
         <f t="shared" si="15"/>
         <v>1.507873042049932E-2</v>
       </c>
-      <c r="E49" s="31">
+      <c r="E49" s="22">
         <f t="shared" si="15"/>
         <v>2.9690034145271404</v>
       </c>
-      <c r="F49" s="31">
+      <c r="F49" s="22">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G49" s="31">
+      <c r="G49" s="22">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="H49" s="31">
+      <c r="H49" s="22">
         <f t="shared" si="15"/>
         <v>1.7441356282887397</v>
       </c>
-      <c r="I49" s="31">
+      <c r="I49" s="22">
         <f t="shared" si="15"/>
         <v>1.4295934065934064</v>
       </c>
-      <c r="J49" s="31">
+      <c r="J49" s="22">
         <f t="shared" si="15"/>
         <v>0.98100155507672104</v>
       </c>
@@ -20530,39 +20499,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="28" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="28" t="s">
+      <c r="G3" s="31"/>
+      <c r="H3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -20758,39 +20727,39 @@
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="28" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="28" t="s">
+      <c r="G13" s="31"/>
+      <c r="H13" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="31"/>
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -20986,39 +20955,39 @@
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="25"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="28" t="s">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="28" t="s">
+      <c r="G23" s="31"/>
+      <c r="H23" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="31"/>
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21214,39 +21183,39 @@
     </row>
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="25"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="26"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="28" t="s">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="28" t="s">
+      <c r="G33" s="31"/>
+      <c r="H33" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="31"/>
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
